--- a/data/trans_camb/P55_6-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P55_6-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,46</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.5475658917310611</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.668709098478139</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.970262841926917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,74; 20,03</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-28,01; 19,2</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-22,54; 14,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.98136898861964</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-27.60297852390108</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-19.99590164156698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,42%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,94%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,37%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>20.49763866497796</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.53927798733684</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.82534778314085</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-18,78; 27,88</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-40,15; 38,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-28,82; 22,18</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.006408178268656235</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.04371472313784562</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.02708070146764524</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1810424026186467</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3810787673109955</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2542362371995471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,2; 3,84</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 6,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,79; 2,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2930966039708569</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.4009911180412634</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2331529718093411</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,36%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,71%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,74%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-3.524744165475402</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.066221544463387</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.900120652134597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,52; 4,16</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,69; 7,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,55; 2,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.21060754750691</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.399106572250544</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.139266935252104</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,05</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-6,55</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-6,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.737510416528809</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.65515693887709</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.013922623073354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,59; -0,33</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,84; -2,96</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,38; -2,79</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.03754216612496496</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.02385227516747186</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.03208688539444757</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-6,2%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-6,6%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,44%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1083716229200077</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1043429625779677</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.08901886381942033</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-15,98; -0,39</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,87; -3,03</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-11,53; -2,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.03943870283256388</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.06779172852663866</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.02287057021497692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-5.90183825685301</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-6.488202583516289</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-6.233415679280774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-15.58095212441709</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.70410851035671</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-11.18342474090259</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-0.3820442056861276</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-2.991786151455587</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-2.75372353606552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.06044002078953556</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.06530398702800949</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.06323496857725219</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-3,88</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-5,27</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-4,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.158727181589593</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1176383605283334</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1132455376776014</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-9,14; 0,45</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-12,96; 0,45</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-9,0; -0,58</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>-0.003366397484667313</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>-0.0302324472556684</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.02870766573418182</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-4,13%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-6,01%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-5,14%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-3.902389074900547</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-5.388378004913308</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-4.723288546175796</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-9,55; 0,44</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-14,46; 0,37</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; -0,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.155791524358886</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-12.4895252949661</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-8.916759068728055</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.267302818770402</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2665470147645196</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.6737708426399505</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.04151564077099383</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.06130035527979884</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.05196963580341511</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.09657836968490402</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1384051071691882</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.0960992596935528</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.001948952018519232</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.002693587928144068</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.008108771642293539</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
